--- a/gender_est_data1.xlsx
+++ b/gender_est_data1.xlsx
@@ -406,20 +406,20 @@
         </is>
       </c>
       <c r="B2">
-        <v>-6.44</v>
+        <v>-6.259</v>
       </c>
       <c r="C2">
-        <v>0.261</v>
+        <v>0.234</v>
       </c>
       <c r="D2">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E2">
-        <v>-24.631</v>
+        <v>-26.693</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.6174e-114</t>
+          <t>1.3605e-134</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -440,20 +440,20 @@
         </is>
       </c>
       <c r="B3">
-        <v>-3.621</v>
+        <v>-4.434</v>
       </c>
       <c r="C3">
-        <v>0.461</v>
+        <v>0.412</v>
       </c>
       <c r="D3">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E3">
-        <v>-7.858</v>
+        <v>-10.767</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.9475e-15</t>
+          <t>2.5525e-26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -474,20 +474,20 @@
         </is>
       </c>
       <c r="B4">
-        <v>-8.765000000000001</v>
+        <v>-9.457000000000001</v>
       </c>
       <c r="C4">
-        <v>0.596</v>
+        <v>0.528</v>
       </c>
       <c r="D4">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E4">
-        <v>-14.713</v>
+        <v>-17.925</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.6202e-46</t>
+          <t>9.1294e-67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="B5">
-        <v>-11.342</v>
+        <v>-11.9</v>
       </c>
       <c r="C5">
-        <v>0.639</v>
+        <v>0.574</v>
       </c>
       <c r="D5">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E5">
-        <v>-17.738</v>
+        <v>-20.736</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.2457e-64</t>
+          <t>1.0636e-86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -542,20 +542,20 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.716</v>
+        <v>0.499</v>
       </c>
       <c r="C6">
-        <v>0.228</v>
+        <v>0.203</v>
       </c>
       <c r="D6">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E6">
-        <v>3.139</v>
+        <v>2.455</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.7239e-03</t>
+          <t>1.4186e-02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -576,20 +576,20 @@
         </is>
       </c>
       <c r="B7">
-        <v>-1.166</v>
+        <v>-1.057</v>
       </c>
       <c r="C7">
-        <v>0.118</v>
+        <v>0.105</v>
       </c>
       <c r="D7">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E7">
-        <v>-9.885999999999999</v>
+        <v>-10.06</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.9456e-22</t>
+          <t>2.9099e-23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -610,20 +610,20 @@
         </is>
       </c>
       <c r="B8">
-        <v>-3.682</v>
+        <v>-3.664</v>
       </c>
       <c r="C8">
-        <v>0.191</v>
+        <v>0.171</v>
       </c>
       <c r="D8">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E8">
-        <v>-19.316</v>
+        <v>-21.401</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.4570e-75</t>
+          <t>1.0765e-91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -644,20 +644,20 @@
         </is>
       </c>
       <c r="B9">
-        <v>-7.889</v>
+        <v>-8.003</v>
       </c>
       <c r="C9">
-        <v>0.415</v>
+        <v>0.361</v>
       </c>
       <c r="D9">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E9">
-        <v>-19.001</v>
+        <v>-22.149</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.8857e-73</t>
+          <t>1.9838e-97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -678,20 +678,20 @@
         </is>
       </c>
       <c r="B10">
-        <v>-5.124</v>
+        <v>-5.54</v>
       </c>
       <c r="C10">
-        <v>0.474</v>
+        <v>0.414</v>
       </c>
       <c r="D10">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E10">
-        <v>-10.817</v>
+        <v>-13.393</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.0944e-26</t>
+          <t>3.0552e-39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -712,20 +712,20 @@
         </is>
       </c>
       <c r="B11">
-        <v>-13.956</v>
+        <v>-14.668</v>
       </c>
       <c r="C11">
-        <v>0.552</v>
+        <v>0.503</v>
       </c>
       <c r="D11">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E11">
-        <v>-25.266</v>
+        <v>-29.154</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.5461e-119</t>
+          <t>4.1901e-156</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -746,20 +746,20 @@
         </is>
       </c>
       <c r="B12">
-        <v>-13.745</v>
+        <v>-14.388</v>
       </c>
       <c r="C12">
-        <v>0.586</v>
+        <v>0.53</v>
       </c>
       <c r="D12">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E12">
-        <v>-23.46</v>
+        <v>-27.13</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.0182e-105</t>
+          <t>2.3722e-138</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -780,20 +780,20 @@
         </is>
       </c>
       <c r="B13">
-        <v>-9.617000000000001</v>
+        <v>-9.563000000000001</v>
       </c>
       <c r="C13">
-        <v>0.29</v>
+        <v>0.262</v>
       </c>
       <c r="D13">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E13">
-        <v>-33.13</v>
+        <v>-36.539</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.1351e-185</t>
+          <t>1.6050e-224</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
